--- a/D11Artifact/InAction.xlsx
+++ b/D11Artifact/InAction.xlsx
@@ -68,106 +68,106 @@
     <t>RJ6038</t>
   </si>
   <si>
-    <t>J Buttler:10 PTS</t>
-  </si>
-  <si>
-    <t>A Rahane:8 PTS</t>
-  </si>
-  <si>
-    <t>S Yadav:48 PTS</t>
-  </si>
-  <si>
-    <t>E Lewis:0 PTS</t>
-  </si>
-  <si>
-    <t>D Short:0 PTS</t>
-  </si>
-  <si>
-    <t>B Stokes:0 PTS</t>
-  </si>
-  <si>
-    <t>K Pandya:9 PTS</t>
-  </si>
-  <si>
-    <t>B Laughlin:0 PTS</t>
-  </si>
-  <si>
-    <t>M McClenaghan:2 PTS</t>
-  </si>
-  <si>
-    <t>J Bumrah:2 PTS</t>
-  </si>
-  <si>
-    <t>S Gopal:-1 PTS</t>
-  </si>
-  <si>
-    <t>R Sharma:0 PTS</t>
-  </si>
-  <si>
-    <t>S Samson:2 PTS</t>
-  </si>
-  <si>
-    <t>H Klaasen:6 PTS</t>
-  </si>
-  <si>
-    <t>K Pandya:6 PTS</t>
-  </si>
-  <si>
-    <t>M Markande:2 PTS</t>
+    <t>J But:10 PTS</t>
+  </si>
+  <si>
+    <t>A Rah:8 PTS</t>
+  </si>
+  <si>
+    <t>S Yad:48 PTS</t>
+  </si>
+  <si>
+    <t>E Lew:0 PTS</t>
+  </si>
+  <si>
+    <t>D Sho:0 PTS</t>
+  </si>
+  <si>
+    <t>B Sto:0 PTS</t>
+  </si>
+  <si>
+    <t>K Pan:9 PTS</t>
+  </si>
+  <si>
+    <t>B Lau:0 PTS</t>
+  </si>
+  <si>
+    <t>M McC:2 PTS</t>
+  </si>
+  <si>
+    <t>J Bum:2 PTS</t>
+  </si>
+  <si>
+    <t>S Gop:-1 PTS</t>
+  </si>
+  <si>
+    <t>R Sha:0 PTS</t>
+  </si>
+  <si>
+    <t>S Sam:2 PTS</t>
+  </si>
+  <si>
+    <t>H Kla:6 PTS</t>
+  </si>
+  <si>
+    <t>K Pan:6 PTS</t>
+  </si>
+  <si>
+    <t>M Mar:2 PTS</t>
   </si>
   <si>
     <t>#4</t>
   </si>
   <si>
-    <t>I Kishan:40 PTS</t>
-  </si>
-  <si>
-    <t>S Yadav:96 PTS</t>
-  </si>
-  <si>
-    <t>R Tripathi:2 PTS</t>
-  </si>
-  <si>
-    <t>J Unadkat:12 PTS</t>
-  </si>
-  <si>
-    <t>H Pandya:4.5 PTS</t>
-  </si>
-  <si>
-    <t>S Samson:4 PTS</t>
-  </si>
-  <si>
-    <t>M Rahman:2 PTS</t>
+    <t>I Kis:40 PTS</t>
+  </si>
+  <si>
+    <t>S Yad:96 PTS</t>
+  </si>
+  <si>
+    <t>R Tri:2 PTS</t>
+  </si>
+  <si>
+    <t>J Una:12 PTS</t>
+  </si>
+  <si>
+    <t>H Pan:4.5 PTS</t>
+  </si>
+  <si>
+    <t>S Sam:4 PTS</t>
+  </si>
+  <si>
+    <t>M Rah:2 PTS</t>
   </si>
   <si>
     <t>#2</t>
   </si>
   <si>
-    <t>S Samson:3 PTS</t>
-  </si>
-  <si>
-    <t>K Gowtham:2 PTS</t>
+    <t>S Sam:3 PTS</t>
+  </si>
+  <si>
+    <t>K Gow:2 PTS</t>
   </si>
   <si>
     <t>#3</t>
   </si>
   <si>
-    <t>K Pollard:13.5 PTS</t>
-  </si>
-  <si>
-    <t>M Nidheesh:0 PTS</t>
-  </si>
-  <si>
-    <t>J Buttler:15 PTS</t>
-  </si>
-  <si>
-    <t>A Rahane:12 PTS</t>
-  </si>
-  <si>
-    <t>K Pandya:12 PTS</t>
-  </si>
-  <si>
-    <t>S Yadav:72 PTS</t>
+    <t>K Pol:14 PTS</t>
+  </si>
+  <si>
+    <t>M Nid:0 PTS</t>
+  </si>
+  <si>
+    <t>J But:15 PTS</t>
+  </si>
+  <si>
+    <t>A Rah:12 PTS</t>
+  </si>
+  <si>
+    <t>K Pan:12 PTS</t>
+  </si>
+  <si>
+    <t>S Yad:72 PTS</t>
   </si>
 </sst>
 </file>

--- a/D11Artifact/InAction.xlsx
+++ b/D11Artifact/InAction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="86">
   <si>
     <t>Winnings</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Team Name</t>
   </si>
   <si>
+    <t>Team Points</t>
+  </si>
+  <si>
     <t>Player1</t>
   </si>
   <si>
@@ -62,19 +65,19 @@
     <t>Player11</t>
   </si>
   <si>
-    <t>#1</t>
-  </si>
-  <si>
     <t>RJ6038</t>
   </si>
   <si>
-    <t>J But:10 PTS</t>
-  </si>
-  <si>
-    <t>A Rah:8 PTS</t>
-  </si>
-  <si>
-    <t>S Yad:48 PTS</t>
+    <t>167</t>
+  </si>
+  <si>
+    <t>J But:13 PTS</t>
+  </si>
+  <si>
+    <t>A Rah:15.5 PTS</t>
+  </si>
+  <si>
+    <t>S Yad:52 PTS</t>
   </si>
   <si>
     <t>E Lew:0 PTS</t>
@@ -83,73 +86,103 @@
     <t>D Sho:0 PTS</t>
   </si>
   <si>
-    <t>B Sto:0 PTS</t>
-  </si>
-  <si>
-    <t>K Pan:9 PTS</t>
+    <t>B Sto:22.5 PTS</t>
+  </si>
+  <si>
+    <t>K Pan:30 PTS</t>
   </si>
   <si>
     <t>B Lau:0 PTS</t>
   </si>
   <si>
-    <t>M McC:2 PTS</t>
-  </si>
-  <si>
-    <t>J Bum:2 PTS</t>
+    <t>M McC:10 PTS</t>
+  </si>
+  <si>
+    <t>J Bum:25 PTS</t>
   </si>
   <si>
     <t>S Gop:-1 PTS</t>
   </si>
   <si>
+    <t>RIDHAN LION</t>
+  </si>
+  <si>
+    <t>182.75</t>
+  </si>
+  <si>
     <t>R Sha:0 PTS</t>
   </si>
   <si>
-    <t>S Sam:2 PTS</t>
-  </si>
-  <si>
-    <t>H Kla:6 PTS</t>
-  </si>
-  <si>
-    <t>K Pan:6 PTS</t>
+    <t>S Sam:34 PTS</t>
+  </si>
+  <si>
+    <t>H Kla:4 PTS</t>
+  </si>
+  <si>
+    <t>B Sto:33.75 PTS</t>
+  </si>
+  <si>
+    <t>K Pan:20 PTS</t>
   </si>
   <si>
     <t>M Mar:2 PTS</t>
   </si>
   <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>I Kis:40 PTS</t>
-  </si>
-  <si>
-    <t>S Yad:96 PTS</t>
-  </si>
-  <si>
-    <t>R Tri:2 PTS</t>
+    <t>MANJ1995</t>
+  </si>
+  <si>
+    <t>305.25</t>
+  </si>
+  <si>
+    <t>I Kis:44 PTS</t>
+  </si>
+  <si>
+    <t>S Yad:104 PTS</t>
+  </si>
+  <si>
+    <t>R Tri:7 PTS</t>
   </si>
   <si>
     <t>J Una:12 PTS</t>
   </si>
   <si>
-    <t>H Pan:4.5 PTS</t>
-  </si>
-  <si>
-    <t>S Sam:4 PTS</t>
-  </si>
-  <si>
-    <t>M Rah:2 PTS</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>S Sam:3 PTS</t>
-  </si>
-  <si>
-    <t>K Gow:2 PTS</t>
-  </si>
-  <si>
-    <t>#3</t>
+    <t>MAANP175GH</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>S Sam:68 PTS</t>
+  </si>
+  <si>
+    <t>M Rah:12 PTS</t>
+  </si>
+  <si>
+    <t>GAAUSO</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>H Pan:18.5 PTS</t>
+  </si>
+  <si>
+    <t>MADHAV1706</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>S Sam:51 PTS</t>
+  </si>
+  <si>
+    <t>K Gow:2.5 PTS</t>
+  </si>
+  <si>
+    <t>BLUE11ME</t>
+  </si>
+  <si>
+    <t>218</t>
   </si>
   <si>
     <t>K Pol:14 PTS</t>
@@ -158,16 +191,85 @@
     <t>M Nid:0 PTS</t>
   </si>
   <si>
-    <t>J But:15 PTS</t>
-  </si>
-  <si>
-    <t>A Rah:12 PTS</t>
-  </si>
-  <si>
-    <t>K Pan:12 PTS</t>
-  </si>
-  <si>
-    <t>S Yad:72 PTS</t>
+    <t>HARIF323HI</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>NIDHI977</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>J But:19.5 PTS</t>
+  </si>
+  <si>
+    <t>SATIS27075TU</t>
+  </si>
+  <si>
+    <t>136.75</t>
+  </si>
+  <si>
+    <t>A Rah:23.25 PTS</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>K Pan:40 PTS</t>
+  </si>
+  <si>
+    <t>DEV GOS</t>
+  </si>
+  <si>
+    <t>167.75</t>
+  </si>
+  <si>
+    <t>ATTITUDE KILLER 2399</t>
+  </si>
+  <si>
+    <t>140.75</t>
+  </si>
+  <si>
+    <t>EAGLE BLACK</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>S Yad:78 PTS</t>
+  </si>
+  <si>
+    <t>DHARM27624IJ</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>B Sto:45 PTS</t>
+  </si>
+  <si>
+    <t>TEJBOY</t>
+  </si>
+  <si>
+    <t>161.75</t>
+  </si>
+  <si>
+    <t>BHUSHAN MUMBAI INDIAN</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>ARUAR128DE</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>K Gow:7.5 PTS</t>
   </si>
 </sst>
 </file>
@@ -267,6 +369,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -275,11 +380,11 @@
       <c r="B2" t="n">
         <v>35.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
+      <c r="C2" t="n">
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -317,40 +422,49 @@
       <c r="P2" t="s">
         <v>28</v>
       </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -360,11 +474,11 @@
       <c r="B4" t="n">
         <v>49.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
+      <c r="C4" t="n">
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -402,110 +516,131 @@
       <c r="P4" t="s">
         <v>28</v>
       </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
         <v>27</v>
       </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -515,11 +650,11 @@
       <c r="B8" t="n">
         <v>35.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
+      <c r="C8" t="n">
+        <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -557,40 +692,49 @@
       <c r="P8" t="s">
         <v>28</v>
       </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
         <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -600,11 +744,11 @@
       <c r="B10" t="n">
         <v>19.0</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
+      <c r="C10" t="n">
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -642,110 +786,131 @@
       <c r="P10" t="s">
         <v>28</v>
       </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
         <v>47</v>
       </c>
+      <c r="Q11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
       <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
         <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -755,11 +920,11 @@
       <c r="B14" t="n">
         <v>27.0</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
+      <c r="C14" t="n">
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -797,75 +962,90 @@
       <c r="P14" t="s">
         <v>28</v>
       </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
         <v>47</v>
       </c>
+      <c r="Q15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -875,11 +1055,11 @@
       <c r="B17" t="n">
         <v>27.0</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
+      <c r="C17" t="n">
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -917,16 +1097,22 @@
       <c r="P17" t="s">
         <v>28</v>
       </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -935,57 +1121,66 @@
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
         <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -995,11 +1190,11 @@
       <c r="B20" t="n">
         <v>59.0</v>
       </c>
-      <c r="C20" t="s">
-        <v>16</v>
+      <c r="C20" t="n">
+        <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>59.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1037,40 +1232,49 @@
       <c r="P20" t="s">
         <v>28</v>
       </c>
+      <c r="Q20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1080,11 +1284,11 @@
       <c r="B22" t="n">
         <v>19.0</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
+      <c r="C22" t="n">
+        <v>3.0</v>
       </c>
       <c r="D22" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1122,110 +1326,131 @@
       <c r="P22" t="s">
         <v>28</v>
       </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23">
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
         <v>32</v>
       </c>
-      <c r="N23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="s">
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P25" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1235,11 +1460,11 @@
       <c r="B26" t="n">
         <v>35.0</v>
       </c>
-      <c r="C26" t="s">
-        <v>42</v>
+      <c r="C26" t="n">
+        <v>2.0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1277,40 +1502,49 @@
       <c r="P26" t="s">
         <v>28</v>
       </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27">
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s">
         <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1320,11 +1554,11 @@
       <c r="B28" t="n">
         <v>35.0</v>
       </c>
-      <c r="C28" t="s">
-        <v>42</v>
+      <c r="C28" t="n">
+        <v>2.0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -1362,40 +1596,60 @@
       <c r="P28" t="s">
         <v>28</v>
       </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s">
         <v>28</v>
       </c>
       <c r="P29" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
